--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT131-001 - Akuntansi - Transaksi - AK - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT131-001 - Akuntansi - Transaksi - AK - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69FB396-BE39-4698-9DD5-922BE09AFC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DBA7AE-7BF0-42C2-8444-0C005E683BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +190,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3B4863"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -237,6 +242,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1695,6 +1704,15 @@
         <v>27</v>
       </c>
     </row>
+    <row r="33" spans="13:13">
+      <c r="M33" s="11"/>
+    </row>
+    <row r="35" spans="13:13">
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="13:13">
+      <c r="M36" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
